--- a/Data_frame/balancos_definitivos/ARLA4.xlsx
+++ b/Data_frame/balancos_definitivos/ARLA4.xlsx
@@ -8493,121 +8493,45 @@
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10338,121 +10262,45 @@
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0</v>
-      </c>
-      <c r="T79" t="n">
-        <v>0</v>
-      </c>
-      <c r="U79" t="n">
-        <v>0</v>
-      </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>0</v>
-      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
+      <c r="AO79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
